--- a/tmp/TODOS.xlsx
+++ b/tmp/TODOS.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="17th November 2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>TODOs</t>
   </si>
@@ -69,6 +70,87 @@
   </si>
   <si>
     <t>Data entry of today's accounts</t>
+  </si>
+  <si>
+    <t>prepare karayaan with man satti</t>
+  </si>
+  <si>
+    <t>prepare karayaan with olai</t>
+  </si>
+  <si>
+    <t>finish the fish net work</t>
+  </si>
+  <si>
+    <t>Study the food for sanda kozhi</t>
+  </si>
+  <si>
+    <t>put sand in the water logged area</t>
+  </si>
+  <si>
+    <t>enter all the accounts for last week and this week</t>
+  </si>
+  <si>
+    <t>get a vetenary doctor's phone number or arrange the naatu maruthuvar</t>
+  </si>
+  <si>
+    <t>cut the kalaikal</t>
+  </si>
+  <si>
+    <t>bring yeni</t>
+  </si>
+  <si>
+    <t>adjust camera</t>
+  </si>
+  <si>
+    <t>Call doctor &amp; check the calf</t>
+  </si>
+  <si>
+    <t>calculate the kuthu kambis</t>
+  </si>
+  <si>
+    <t>complete the shed work</t>
+  </si>
+  <si>
+    <t>muttai vaikka idam yerpaadu</t>
+  </si>
+  <si>
+    <t>Purchase - feeder for male</t>
+  </si>
+  <si>
+    <t>Purchase - feeder for female</t>
+  </si>
+  <si>
+    <t>Vaikkol purchase</t>
+  </si>
+  <si>
+    <t>Medicinal plants for Kozhi</t>
+  </si>
+  <si>
+    <t>Purchase - Kambu, Gothumai, Kezhvaragu</t>
+  </si>
+  <si>
+    <t>Meet Selvam Xavier</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Organize tools</t>
+  </si>
+  <si>
+    <t>Identify kambi assets, mark it and record it</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Purchase kambu, kezhvaragu, manjal, vaal milaku, karunjeerakam and Thipili</t>
+  </si>
+  <si>
+    <t>Change the cylinder</t>
+  </si>
+  <si>
+    <t>Purchase - 4 buckets</t>
   </si>
 </sst>
 </file>
@@ -84,12 +166,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,8 +192,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -552,4 +641,171 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>